--- a/medicine/Enfance/Joseph_Cogan/Joseph_Cogan.xlsx
+++ b/medicine/Enfance/Joseph_Cogan/Joseph_Cogan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Cogan (né le 1er janvier 1903, Kichinev, Russie, aujourd'hui Moldavie-1944, Auschwitz) est le comptable-économe de la Maison d'Enfants de Broût-Vernet à Broût-Vernet (Allier), durant la Seconde Guerre mondiale. Il est arrêté le  2 novembre 1943 et déporté avec ses deux enfants par le Convoi No. 64, en date du 7 décembre 1943 de Drancy à Auschwitz, où les deux enfants sont assassinés à leur arrivée, et leur père sept mois plus tard. 
 </t>
@@ -511,17 +523,93 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Cogan est né le 1er janvier 1903, Kichinev, Russie, aujourd'hui Moldavie[1],[2],[3],[4]
-,[5].
-Son épouse est Jeanette Cogan (née Céorna Cohn), née le 5 mai 1903 à Iași, en Roumanie[1].
-Leur fille, Fanny Cogan, est née le 27 novembre 1937, dans le 6e arrondissement de Paris[6].
-Seconde Guerre mondiale
-En 1939 Joseph Cogan veut s’engager dans l'armée française mais il n’est pas appelé[1].
-Broût-Vernet
-Joseph Cogan, Jeannette Cogan et Fanny Cogan  sont parmi les premiers à arriver à la Maison d’Enfants de Broût-Vernet (Allier) en janvier 1940[1].
-Diplômé de H.E.C.(Hautes Études Commerciales), Joseph Cogan y occupe la position de comptable et Jeannette occupe la fonctions de lingère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Cogan est né le 1er janvier 1903, Kichinev, Russie, aujourd'hui Moldavie
+,.
+Son épouse est Jeanette Cogan (née Céorna Cohn), née le 5 mai 1903 à Iași, en Roumanie.
+Leur fille, Fanny Cogan, est née le 27 novembre 1937, dans le 6e arrondissement de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Joseph_Cogan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Cogan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1939 Joseph Cogan veut s’engager dans l'armée française mais il n’est pas appelé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joseph_Cogan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Cogan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Broût-Vernet</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Cogan, Jeannette Cogan et Fanny Cogan  sont parmi les premiers à arriver à la Maison d’Enfants de Broût-Vernet (Allier) en janvier 1940.
+Diplômé de H.E.C.(Hautes Études Commerciales), Joseph Cogan y occupe la position de comptable et Jeannette occupe la fonctions de lingère.
 </t>
         </is>
       </c>
